--- a/Treinamento da Rede Neural/estatisticas/a_6.xlsx
+++ b/Treinamento da Rede Neural/estatisticas/a_6.xlsx
@@ -369,7 +369,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>média</t>
+          <t>media</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
